--- a/Sensor_Worksheet_v23.xlsx
+++ b/Sensor_Worksheet_v23.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC5083CA-DF0A-4A20-B135-1E9A5A406136}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E85C504-D796-4C11-9B14-27D0C7B69581}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="30" windowWidth="14250" windowHeight="6120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="30" windowWidth="14250" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SensorName" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="231">
   <si>
     <t>FCF</t>
   </si>
@@ -693,6 +693,36 @@
   </si>
   <si>
     <t>A3 limit</t>
+  </si>
+  <si>
+    <t>Drive Overshoot Limit (800)</t>
+  </si>
+  <si>
+    <t>Drive Saturation Algorithm (800)</t>
+  </si>
+  <si>
+    <t>Minimum Drive (700)</t>
+  </si>
+  <si>
+    <t>Free Decay (4200): Drv SP FCF</t>
+  </si>
+  <si>
+    <t>Free Decay (4200): Puck P FCF</t>
+  </si>
+  <si>
+    <t>Free Decay (4200): Max Current</t>
+  </si>
+  <si>
+    <t>Drive Overshoot Limit (PEG) (800)</t>
+  </si>
+  <si>
+    <t>FDM 3089 (Drive SP FCF)</t>
+  </si>
+  <si>
+    <t>FDM 3091 (Puck P FCF)</t>
+  </si>
+  <si>
+    <t>FDM 3163 (Max Sensor Current)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +767,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -822,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -886,6 +929,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1825,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:T84"/>
+  <dimension ref="B4:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:H56"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,9 +3243,659 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+    </row>
+    <row r="73" spans="2:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="G87" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="24"/>
+      <c r="G89" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="24"/>
+      <c r="G90" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="24"/>
+      <c r="G91" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="37"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G113" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
